--- a/DataTables/Datas/#FishCfg.xlsx
+++ b/DataTables/Datas/#FishCfg.xlsx
@@ -1,164 +1,678 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GGJ2025_Bubble\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C55F1-704C-49FB-8EFF-631A69579025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="1580" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18345" windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>sprite_path</t>
+  </si>
+  <si>
+    <t>name_sprite_path</t>
+  </si>
+  <si>
+    <t>cost_sprite_path</t>
+  </si>
+  <si>
+    <t>##type</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鱼名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼图像路径</t>
+  </si>
+  <si>
+    <t>鱼名图像路径</t>
+  </si>
+  <si>
+    <t>鱼价值图像路径</t>
   </si>
   <si>
     <t>Clam</t>
   </si>
   <si>
+    <t>Sprite-clam</t>
+  </si>
+  <si>
+    <t>Sprite-names_13</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_1</t>
+  </si>
+  <si>
     <t>Crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼名图像路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼图像路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼价值图像路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name_sprite_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_sprite_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite-crab</t>
   </si>
   <si>
     <t>Sprite-names_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite-Valuetable_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sprite-Valuetable_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite-names_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite-clam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite-crab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PinkBass</t>
+  </si>
+  <si>
+    <t>Sprite-Pink Bass</t>
+  </si>
+  <si>
+    <t>Sprite-names_0</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_9</t>
+  </si>
+  <si>
+    <t>BlackCarp</t>
+  </si>
+  <si>
+    <t>Sprite-Blackcarp</t>
+  </si>
+  <si>
+    <t>Sprite-names_2</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_17</t>
+  </si>
+  <si>
+    <t>Catfish</t>
+  </si>
+  <si>
+    <t>Sprite-catfish</t>
+  </si>
+  <si>
+    <t>Sprite-names_3</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_15</t>
+  </si>
+  <si>
+    <t>ChubbyChub</t>
+  </si>
+  <si>
+    <t>Sprite-chubby chub</t>
+  </si>
+  <si>
+    <t>Sprite-names_8</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_18</t>
+  </si>
+  <si>
+    <t>ClassicBass</t>
+  </si>
+  <si>
+    <t>Sprite-Classic Bass</t>
+  </si>
+  <si>
+    <t>Sprite-names_1</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_7</t>
+  </si>
+  <si>
+    <t>ColorfulCarp</t>
+  </si>
+  <si>
+    <t>Sprite-Colorfullookingcarp</t>
+  </si>
+  <si>
+    <t>Sprite-names_17</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_2</t>
+  </si>
+  <si>
+    <t>DinosaurFish</t>
+  </si>
+  <si>
+    <t>Sprite-dinosaurfish</t>
+  </si>
+  <si>
+    <t>Sprite-names_19</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_5</t>
+  </si>
+  <si>
+    <t>FishFoam</t>
+  </si>
+  <si>
+    <t>Sprite-fishshapedfoam</t>
+  </si>
+  <si>
+    <t>Sprite-names_10</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_6</t>
+  </si>
+  <si>
+    <t>GrassCarp</t>
+  </si>
+  <si>
+    <t>Sprite-grasscarp</t>
+  </si>
+  <si>
+    <t>Sprite-names_5</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_4</t>
+  </si>
+  <si>
+    <t>MudFish</t>
+  </si>
+  <si>
+    <t>Sprite-mudfish</t>
+  </si>
+  <si>
+    <t>Sprite-names_7</t>
+  </si>
+  <si>
+    <t>NeverSeenBefore</t>
+  </si>
+  <si>
+    <t>Sprite-Neverseenthisbefore</t>
+  </si>
+  <si>
+    <t>Sprite-names_14</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_12</t>
+  </si>
+  <si>
+    <t>RainbowTrout</t>
+  </si>
+  <si>
+    <t>Sprite-rainbowtrout</t>
+  </si>
+  <si>
+    <t>Sprite-names_6</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_10</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>Sprite-snail</t>
+  </si>
+  <si>
+    <t>Sprite-names_11</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_11</t>
+  </si>
+  <si>
+    <t>SoftShellTurtle</t>
+  </si>
+  <si>
+    <t>Sprite-softshellturtle</t>
+  </si>
+  <si>
+    <t>Sprite-names_12</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_13</t>
+  </si>
+  <si>
+    <t>ThisNotEdible</t>
+  </si>
+  <si>
+    <t>Sprite-thisnotedible</t>
+  </si>
+  <si>
+    <t>Sprite-names_16</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_8</t>
+  </si>
+  <si>
+    <t>ToyFish</t>
+  </si>
+  <si>
+    <t>Sprite-toyfishbone</t>
+  </si>
+  <si>
+    <t>Sprite-names_18</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_14</t>
+  </si>
+  <si>
+    <t>OldWatch</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>Sprite-names_9</t>
+  </si>
+  <si>
+    <t>Sprite-Valuetable_20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,24 +680,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -267,7 +1067,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -441,30 +1241,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,113 +1273,453 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTables/Datas/#FishCfg.xlsx
+++ b/DataTables/Datas/#FishCfg.xlsx
@@ -110,7 +110,7 @@
     <t>PinkBass</t>
   </si>
   <si>
-    <t>Sprite-Pink Bass</t>
+    <t>Sprite-PinkBass</t>
   </si>
   <si>
     <t>Sprite-names_0</t>
@@ -158,7 +158,7 @@
     <t>ClassicBass</t>
   </si>
   <si>
-    <t>Sprite-Classic Bass</t>
+    <t>Sprite-ClassicBass</t>
   </si>
   <si>
     <t>Sprite-names_1</t>
@@ -318,14 +318,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,148 +774,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1243,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/DataTables/Datas/#FishCfg.xlsx
+++ b/DataTables/Datas/#FishCfg.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GGJ2025_Bubble\DataTables\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD9EC5E-63B8-48B0-8368-C7997BE92BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18345" windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>##var</t>
   </si>
@@ -85,6 +92,9 @@
     <t>Sprite-names_13</t>
   </si>
   <si>
+    <t>Sprite-clam-value</t>
+  </si>
+  <si>
     <t>Crab</t>
   </si>
   <si>
@@ -94,6 +104,9 @@
     <t>Sprite-names_4</t>
   </si>
   <si>
+    <t>Sprite-crab-value</t>
+  </si>
+  <si>
     <t>PinkBass</t>
   </si>
   <si>
@@ -103,6 +116,9 @@
     <t>Sprite-names_0</t>
   </si>
   <si>
+    <t>Sprite-pinkbass-value</t>
+  </si>
+  <si>
     <t>BlackCarp</t>
   </si>
   <si>
@@ -112,6 +128,9 @@
     <t>Sprite-names_2</t>
   </si>
   <si>
+    <t>Sprite-blackcarp-value</t>
+  </si>
+  <si>
     <t>Catfish</t>
   </si>
   <si>
@@ -121,6 +140,9 @@
     <t>Sprite-names_3</t>
   </si>
   <si>
+    <t>Sprite-catfish-value</t>
+  </si>
+  <si>
     <t>ChubbyChub</t>
   </si>
   <si>
@@ -130,6 +152,9 @@
     <t>Sprite-names_8</t>
   </si>
   <si>
+    <t>Sprite-classicbass-value</t>
+  </si>
+  <si>
     <t>ClassicBass</t>
   </si>
   <si>
@@ -148,6 +173,9 @@
     <t>Sprite-names_17</t>
   </si>
   <si>
+    <t>Sprite-colorfullookingcarp-value</t>
+  </si>
+  <si>
     <t>DinosaurFish</t>
   </si>
   <si>
@@ -157,6 +185,9 @@
     <t>Sprite-names_19</t>
   </si>
   <si>
+    <t>Sprite-dinosaurfish-value</t>
+  </si>
+  <si>
     <t>FishFoam</t>
   </si>
   <si>
@@ -166,6 +197,9 @@
     <t>Sprite-names_10</t>
   </si>
   <si>
+    <t>Sprite-fishshapedfoam-value</t>
+  </si>
+  <si>
     <t>GrassCarp</t>
   </si>
   <si>
@@ -175,6 +209,9 @@
     <t>Sprite-names_5</t>
   </si>
   <si>
+    <t>Sprite-grasscarp-value</t>
+  </si>
+  <si>
     <t>MudFish</t>
   </si>
   <si>
@@ -184,6 +221,9 @@
     <t>Sprite-names_7</t>
   </si>
   <si>
+    <t>Sprite-mudfish-value</t>
+  </si>
+  <si>
     <t>NeverSeenBefore</t>
   </si>
   <si>
@@ -193,6 +233,9 @@
     <t>Sprite-names_14</t>
   </si>
   <si>
+    <t>Sprite-neverseenthisbefore-value</t>
+  </si>
+  <si>
     <t>RainbowTrout</t>
   </si>
   <si>
@@ -202,6 +245,9 @@
     <t>Sprite-names_6</t>
   </si>
   <si>
+    <t>Sprite-rainbowtrout-value</t>
+  </si>
+  <si>
     <t>Snail</t>
   </si>
   <si>
@@ -211,6 +257,9 @@
     <t>Sprite-names_11</t>
   </si>
   <si>
+    <t>Sprite-snail-value</t>
+  </si>
+  <si>
     <t>SoftShellTurtle</t>
   </si>
   <si>
@@ -220,6 +269,9 @@
     <t>Sprite-names_12</t>
   </si>
   <si>
+    <t>Sprite-softshellturtle-value</t>
+  </si>
+  <si>
     <t>ThisNotEdible</t>
   </si>
   <si>
@@ -229,6 +281,9 @@
     <t>Sprite-names_16</t>
   </si>
   <si>
+    <t>Sprite-thisnotedible-value</t>
+  </si>
+  <si>
     <t>ToyFish</t>
   </si>
   <si>
@@ -238,6 +293,9 @@
     <t>Sprite-names_18</t>
   </si>
   <si>
+    <t>Sprite-toyfishbone-value</t>
+  </si>
+  <si>
     <t>OldWatch</t>
   </si>
   <si>
@@ -247,14 +305,53 @@
     <t>Sprite-names_9</t>
   </si>
   <si>
-    <t>Sprite-blackcarp-value</t>
+    <t>Sprite-brokenwatch-value</t>
+  </si>
+  <si>
+    <t>Trout</t>
+  </si>
+  <si>
+    <t>Sprite-trout</t>
+  </si>
+  <si>
+    <t>Sprite-names_(2)_22</t>
+  </si>
+  <si>
+    <t>Sprite-trout-value</t>
+  </si>
+  <si>
+    <t>GodFish</t>
+  </si>
+  <si>
+    <t>Sprite-Godfeastsonthefifthday</t>
+  </si>
+  <si>
+    <t>Sprite-names_(2)_21</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Sprite-wallet</t>
+  </si>
+  <si>
+    <t>Sprite-names_(2)_20</t>
+  </si>
+  <si>
+    <t>Sprite-wallet-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,21 +360,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -285,24 +706,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,25 +1267,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -630,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -656,7 +1363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>1</v>
       </c>
@@ -673,372 +1380,432 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTables/Datas/#FishCfg.xlsx
+++ b/DataTables/Datas/#FishCfg.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\GGJ2025_Bubble\DataTables\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE4F69-F280-4D8B-9B1D-199538D8EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="18375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -314,9 +307,6 @@
     <t>Sprite-trout</t>
   </si>
   <si>
-    <t>Sprite-names_(2)_22</t>
-  </si>
-  <si>
     <t>Sprite-trout-value</t>
   </si>
   <si>
@@ -326,32 +316,32 @@
     <t>Sprite-Godfeastsonthefifthday</t>
   </si>
   <si>
-    <t>Sprite-names_(2)_21</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
     <t>Sprite-wallet</t>
   </si>
   <si>
-    <t>Sprite-names_(2)_20</t>
-  </si>
-  <si>
     <t>Sprite-wallet-value</t>
+  </si>
+  <si>
+    <t>Sprite-names (2)_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite-names (2)_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite-names (2)_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,345 +350,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -706,310 +381,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1267,25 +657,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="7" width="18.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="18.8333333333333" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1383,7 +773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1403,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1423,7 +813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1443,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1463,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1483,7 +873,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1503,7 +893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1523,7 +913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1543,7 +933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1563,7 +953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1583,7 +973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1603,7 +993,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>13</v>
       </c>
@@ -1623,7 +1013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>14</v>
       </c>
@@ -1643,7 +1033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>15</v>
       </c>
@@ -1663,7 +1053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>16</v>
       </c>
@@ -1683,7 +1073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>17</v>
       </c>
@@ -1703,7 +1093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>18</v>
       </c>
@@ -1723,7 +1113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>19</v>
       </c>
@@ -1743,7 +1133,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>20</v>
       </c>
@@ -1756,56 +1146,56 @@
       <c r="F23" t="s">
         <v>94</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" t="s">
         <v>95</v>
       </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>